--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAdmissionEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAdmissionEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T09:32:48+00:00</t>
+    <t>2024-06-19T12:05:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAdmissionEncounter.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-MOPEDAdmissionEncounter.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:05:11+00:00</t>
+    <t>2024-06-25T16:45:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
